--- a/£BOO.xlsx
+++ b/£BOO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2D692A-3EEC-1746-BDB2-18F2691CC9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7D66DB-F2F3-4059-B946-9DC50D5E6045}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18900" xr2:uid="{D917D6C7-21F6-41B2-8A72-ADD41125E50A}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18900" xr2:uid="{D917D6C7-21F6-41B2-8A72-ADD41125E50A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -719,20 +709,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,34 +726,40 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1257,51 +1247,51 @@
   <dimension ref="A2:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:D37"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="56" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="G5" s="56" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="G5" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="60"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="48">
-        <v>0.38490000000000002</v>
+        <v>0.43030000000000002</v>
       </c>
       <c r="D6" s="17"/>
       <c r="G6" s="12"/>
@@ -1316,7 +1306,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1338,13 +1328,13 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>477.16053000000005</v>
+        <v>533.44290999999998</v>
       </c>
       <c r="D8" s="17"/>
       <c r="G8" s="12"/>
@@ -1359,7 +1349,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
@@ -1382,7 +1372,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
@@ -1405,7 +1395,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
@@ -1428,13 +1418,13 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>513.76053000000002</v>
+        <v>570.04290999999989</v>
       </c>
       <c r="D12" s="18"/>
       <c r="G12" s="12"/>
@@ -1449,7 +1439,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G13" s="12"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1462,7 +1452,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G14" s="12"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1475,12 +1465,12 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="56" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
       <c r="G15" s="12"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1493,17 +1483,17 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="63"/>
       <c r="G16" s="12"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1516,14 +1506,14 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="63"/>
       <c r="G17" s="12"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1536,17 +1526,17 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="63"/>
       <c r="G18" s="12"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1559,17 +1549,17 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="53"/>
+      <c r="D19" s="70"/>
       <c r="G19" s="31">
         <v>44228</v>
       </c>
@@ -1586,7 +1576,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G20" s="12"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1599,7 +1589,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G21" s="31">
         <v>44197</v>
       </c>
@@ -1616,12 +1606,12 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="56" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
       <c r="G22" s="12"/>
       <c r="H22" s="5" t="s">
         <v>61</v>
@@ -1636,14 +1626,14 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="63"/>
       <c r="G23" s="12"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1656,14 +1646,14 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="66">
         <v>2006</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="63"/>
       <c r="G24" s="31">
         <v>44531</v>
       </c>
@@ -1680,15 +1670,15 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="66">
         <f>'Financial Model'!M35</f>
         <v>269.7</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="63"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1701,10 +1691,10 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
       <c r="G26" s="12"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1717,14 +1707,14 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="50">
         <v>44832</v>
       </c>
       <c r="G27" s="12"/>
@@ -1739,14 +1729,14 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="64"/>
+      <c r="D28" s="74"/>
       <c r="G28" s="12"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1759,7 +1749,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G29" s="12"/>
       <c r="H29" s="5"/>
       <c r="J29" s="5"/>
@@ -1771,7 +1761,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1784,12 +1774,12 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="56" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1802,15 +1792,15 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="71">
         <f>C12/'Financial Model'!T14</f>
-        <v>-128.44013249999853</v>
-      </c>
-      <c r="D32" s="60"/>
+        <v>-142.51072749999832</v>
+      </c>
+      <c r="D32" s="72"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1823,12 +1813,12 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -1841,12 +1831,12 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
       <c r="G34" s="31">
         <v>44013</v>
       </c>
@@ -1863,15 +1853,15 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="71">
         <f>C6/'Financial Model'!M58</f>
-        <v>1.1237883419689116</v>
-      </c>
-      <c r="D35" s="60"/>
+        <v>1.2563422279792744</v>
+      </c>
+      <c r="D35" s="72"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1884,10 +1874,10 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -1900,15 +1890,15 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="61">
         <f>C8/'Financial Model'!T3</f>
-        <v>0.24064985374218281</v>
-      </c>
-      <c r="D37" s="66"/>
+        <v>0.26903515735323785</v>
+      </c>
+      <c r="D37" s="62"/>
       <c r="G37" s="13"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -1921,49 +1911,40 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="61">
         <f>'Financial Model'!T71</f>
         <v>0.5572182368367965</v>
       </c>
-      <c r="D38" s="55"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D38" s="63"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="65">
+      <c r="C39" s="61">
         <f>'Financial Model'!S71</f>
         <v>2.3563503695639718</v>
       </c>
-      <c r="D39" s="55"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D39" s="63"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="12"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="51"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C17:D17"/>
@@ -1979,6 +1960,15 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{3DA49863-E5C6-46B1-8E08-C0029C60358D}"/>
@@ -1999,28 +1989,28 @@
       <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="1"/>
-    <col min="4" max="4" width="9.1640625" style="29"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="29"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="29"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.1640625" style="29"/>
-    <col min="11" max="11" width="9.1640625" style="1"/>
-    <col min="12" max="12" width="9.1640625" style="29"/>
-    <col min="13" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="14" width="9.1640625" style="29"/>
-    <col min="15" max="20" width="9.1640625" style="1"/>
-    <col min="21" max="21" width="9.1640625" style="30"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="29"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="29"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="29"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="29"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="29"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="29"/>
+    <col min="15" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="9.140625" style="30"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="19" t="s">
         <v>30</v>
       </c>
@@ -2112,7 +2102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="D2" s="25"/>
       <c r="F2" s="25"/>
@@ -2146,7 +2136,7 @@
       </c>
       <c r="U2" s="28"/>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
@@ -2160,7 +2150,7 @@
       <c r="K3" s="2">
         <v>975.9</v>
       </c>
-      <c r="L3" s="70">
+      <c r="L3" s="53">
         <f>T3-K3</f>
         <v>1006.9</v>
       </c>
@@ -2182,7 +2172,7 @@
       </c>
       <c r="U3" s="33"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
@@ -2192,7 +2182,7 @@
       <c r="K4" s="1">
         <v>442.6</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="52">
         <f>T4-K4</f>
         <v>499.1</v>
       </c>
@@ -2212,7 +2202,7 @@
         <v>941.7</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>67</v>
       </c>
@@ -2228,7 +2218,7 @@
         <f t="shared" ref="K5" si="1">K3-K4</f>
         <v>533.29999999999995</v>
       </c>
-      <c r="L5" s="70">
+      <c r="L5" s="53">
         <f t="shared" ref="L5:M5" si="2">L3-L4</f>
         <v>507.79999999999995</v>
       </c>
@@ -2255,14 +2245,14 @@
       </c>
       <c r="U5" s="33"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K6" s="1">
         <v>247.3</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="52">
         <f t="shared" ref="L6:L13" si="4">T6-K6</f>
         <v>269.2</v>
       </c>
@@ -2282,14 +2272,14 @@
         <v>516.5</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="51">
         <v>261</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="52">
         <f t="shared" si="4"/>
         <v>254.29999999999995</v>
       </c>
@@ -2309,14 +2299,14 @@
         <v>515.29999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="51">
         <v>0</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="52">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
@@ -2336,7 +2326,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
@@ -2348,7 +2338,7 @@
         <f t="shared" ref="K9:M9" si="5">K5-K6-K7+K8</f>
         <v>24.999999999999943</v>
       </c>
-      <c r="L9" s="70">
+      <c r="L9" s="53">
         <f t="shared" si="5"/>
         <v>-15.599999999999989</v>
       </c>
@@ -2375,14 +2365,14 @@
       </c>
       <c r="U9" s="33"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K10" s="1">
         <v>0.2</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="52">
         <f t="shared" si="4"/>
         <v>-0.2</v>
       </c>
@@ -2402,14 +2392,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K11" s="1">
         <v>0.6</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="52">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -2429,7 +2419,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>74</v>
       </c>
@@ -2437,7 +2427,7 @@
         <f t="shared" ref="K12:M12" si="7">K9+K10-K11</f>
         <v>24.599999999999941</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="52">
         <f t="shared" si="7"/>
         <v>-16.79999999999999</v>
       </c>
@@ -2462,14 +2452,14 @@
         <v>7.7999999999999545</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K13" s="1">
         <v>6.8</v>
       </c>
-      <c r="L13" s="69">
+      <c r="L13" s="52">
         <f t="shared" si="4"/>
         <v>5.0000000000000009</v>
       </c>
@@ -2489,7 +2479,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>76</v>
       </c>
@@ -2501,7 +2491,7 @@
         <f t="shared" ref="K14:M14" si="9">K12-K13</f>
         <v>17.79999999999994</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="53">
         <f t="shared" si="9"/>
         <v>-21.79999999999999</v>
       </c>
@@ -2528,7 +2518,7 @@
       </c>
       <c r="U14" s="33"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -2536,7 +2526,7 @@
         <f t="shared" ref="K15" si="11">K14/K16</f>
         <v>1.4378029079159887E-2</v>
       </c>
-      <c r="L15" s="72">
+      <c r="L15" s="55">
         <f t="shared" ref="L15:M15" si="12">L14/L16</f>
         <v>-1.7647535011738033E-2</v>
       </c>
@@ -2561,14 +2551,14 @@
         <v>-3.2380798186675678E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="35">
         <v>1238</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="52">
         <f>T16</f>
         <v>1235.3</v>
       </c>
@@ -2589,7 +2579,7 @@
         <v>1235.3</v>
       </c>
     </row>
-    <row r="18" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>78</v>
       </c>
@@ -2617,11 +2607,11 @@
       </c>
       <c r="U18" s="33"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="71">
+      <c r="L19" s="54">
         <f>L3/K3-1</f>
         <v>3.176554974894974E-2</v>
       </c>
@@ -2645,7 +2635,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
@@ -2657,7 +2647,7 @@
         <f t="shared" ref="K21:L21" si="16">K5/K3</f>
         <v>0.54646992519725379</v>
       </c>
-      <c r="L21" s="71">
+      <c r="L21" s="54">
         <f t="shared" si="16"/>
         <v>0.50432019068427847</v>
       </c>
@@ -2682,7 +2672,7 @@
         <v>0.52506556384910219</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
@@ -2694,7 +2684,7 @@
         <f t="shared" ref="K22:L22" si="20">K9/K3</f>
         <v>2.5617378829798077E-2</v>
       </c>
-      <c r="L22" s="71">
+      <c r="L22" s="54">
         <f t="shared" si="20"/>
         <v>-1.5493097626377982E-2</v>
       </c>
@@ -2719,7 +2709,7 @@
         <v>4.7407706273955791E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2731,7 +2721,7 @@
         <f t="shared" ref="K23:L23" si="24">K14/K3</f>
         <v>1.823957372681621E-2</v>
       </c>
-      <c r="L23" s="71">
+      <c r="L23" s="54">
         <f t="shared" si="24"/>
         <v>-2.1650610785579491E-2</v>
       </c>
@@ -2756,7 +2746,7 @@
         <v>-2.017349203147088E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2768,7 +2758,7 @@
         <f t="shared" ref="K24:L24" si="28">K13/K12</f>
         <v>0.27642276422764295</v>
       </c>
-      <c r="L24" s="71">
+      <c r="L24" s="54">
         <f t="shared" si="28"/>
         <v>-0.29761904761904784</v>
       </c>
@@ -2793,7 +2783,7 @@
         <v>1.5128205128205217</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>85</v>
       </c>
@@ -2801,15 +2791,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K28" s="35">
         <v>121.6</v>
       </c>
-      <c r="L28" s="69">
-        <f>T28</f>
+      <c r="L28" s="52">
+        <f t="shared" ref="L28:L40" si="31">T28</f>
         <v>128.5</v>
       </c>
       <c r="M28" s="35">
@@ -2822,15 +2812,15 @@
         <v>128.5</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K29" s="35">
         <v>287.89999999999998</v>
       </c>
-      <c r="L29" s="69">
-        <f>T29</f>
+      <c r="L29" s="52">
+        <f t="shared" si="31"/>
         <v>349.2</v>
       </c>
       <c r="M29" s="35">
@@ -2843,15 +2833,15 @@
         <v>349.2</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K30" s="35">
         <v>53.6</v>
       </c>
-      <c r="L30" s="69">
-        <f>T30</f>
+      <c r="L30" s="52">
+        <f t="shared" si="31"/>
         <v>49.7</v>
       </c>
       <c r="M30" s="35">
@@ -2864,7 +2854,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="31" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>89</v>
       </c>
@@ -2875,8 +2865,8 @@
       <c r="K31" s="34">
         <v>7.3</v>
       </c>
-      <c r="L31" s="70">
-        <f>T31</f>
+      <c r="L31" s="53">
+        <f t="shared" si="31"/>
         <v>2.8</v>
       </c>
       <c r="M31" s="34">
@@ -2891,15 +2881,15 @@
       </c>
       <c r="U31" s="33"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>125</v>
       </c>
       <c r="K32" s="35">
         <v>0</v>
       </c>
-      <c r="L32" s="69">
-        <f>T32</f>
+      <c r="L32" s="52">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M32" s="35">
@@ -2912,15 +2902,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K33" s="35">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L33" s="69">
-        <f>T33</f>
+      <c r="L33" s="52">
+        <f t="shared" si="31"/>
         <v>7.5</v>
       </c>
       <c r="M33" s="35">
@@ -2933,7 +2923,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>91</v>
       </c>
@@ -2941,8 +2931,8 @@
         <f>SUM(K28:K33)</f>
         <v>472.70000000000005</v>
       </c>
-      <c r="L34" s="69">
-        <f>T34</f>
+      <c r="L34" s="52">
+        <f t="shared" si="31"/>
         <v>537.69999999999993</v>
       </c>
       <c r="M34" s="35">
@@ -2958,7 +2948,7 @@
         <v>537.69999999999993</v>
       </c>
     </row>
-    <row r="35" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>92</v>
       </c>
@@ -2969,8 +2959,8 @@
       <c r="K35" s="34">
         <v>255.2</v>
       </c>
-      <c r="L35" s="70">
-        <f>T35</f>
+      <c r="L35" s="53">
+        <f t="shared" si="31"/>
         <v>279.39999999999998</v>
       </c>
       <c r="M35" s="34">
@@ -2985,15 +2975,15 @@
       </c>
       <c r="U35" s="33"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K36" s="35">
         <v>47.5</v>
       </c>
-      <c r="L36" s="69">
-        <f>T36</f>
+      <c r="L36" s="52">
+        <f t="shared" si="31"/>
         <v>58</v>
       </c>
       <c r="M36" s="35">
@@ -3006,7 +2996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>89</v>
       </c>
@@ -3017,8 +3007,8 @@
       <c r="K37" s="34">
         <v>15.9</v>
       </c>
-      <c r="L37" s="70">
-        <f>T37</f>
+      <c r="L37" s="53">
+        <f t="shared" si="31"/>
         <v>14.2</v>
       </c>
       <c r="M37" s="34">
@@ -3033,15 +3023,15 @@
       </c>
       <c r="U37" s="33"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>94</v>
       </c>
       <c r="K38" s="35">
         <v>3</v>
       </c>
-      <c r="L38" s="69">
-        <f>T38</f>
+      <c r="L38" s="52">
+        <f t="shared" si="31"/>
         <v>7.8</v>
       </c>
       <c r="M38" s="35">
@@ -3054,7 +3044,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="39" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
@@ -3065,8 +3055,8 @@
       <c r="K39" s="34">
         <v>148.4</v>
       </c>
-      <c r="L39" s="70">
-        <f>T39</f>
+      <c r="L39" s="53">
+        <f t="shared" si="31"/>
         <v>101.3</v>
       </c>
       <c r="M39" s="34">
@@ -3081,7 +3071,7 @@
       </c>
       <c r="U39" s="33"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>96</v>
       </c>
@@ -3089,8 +3079,8 @@
         <f>K34+SUM(K35:K39)</f>
         <v>942.7</v>
       </c>
-      <c r="L40" s="69">
-        <f>T40</f>
+      <c r="L40" s="52">
+        <f t="shared" si="31"/>
         <v>998.39999999999986</v>
       </c>
       <c r="M40" s="35">
@@ -3106,18 +3096,18 @@
         <v>998.39999999999986</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="S41" s="35"/>
       <c r="T41" s="35"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K42" s="35">
         <v>295.5</v>
       </c>
-      <c r="L42" s="69">
+      <c r="L42" s="52">
         <f>T42</f>
         <v>296.60000000000002</v>
       </c>
@@ -3131,15 +3121,15 @@
         <v>296.60000000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>98</v>
       </c>
       <c r="K43" s="35">
         <v>54.3</v>
       </c>
-      <c r="L43" s="69">
-        <f t="shared" ref="L43:L52" si="31">T43</f>
+      <c r="L43" s="52">
+        <f t="shared" ref="L43:L52" si="32">T43</f>
         <v>53.5</v>
       </c>
       <c r="M43" s="1">
@@ -3152,7 +3142,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="44" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
@@ -3163,8 +3153,8 @@
       <c r="K44" s="34">
         <v>50</v>
       </c>
-      <c r="L44" s="70">
-        <f t="shared" si="31"/>
+      <c r="L44" s="53">
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="M44" s="2">
@@ -3179,15 +3169,15 @@
       </c>
       <c r="U44" s="33"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K45" s="35">
         <v>8.1</v>
       </c>
-      <c r="L45" s="69">
-        <f t="shared" si="31"/>
+      <c r="L45" s="52">
+        <f t="shared" si="32"/>
         <v>7.9</v>
       </c>
       <c r="M45" s="1">
@@ -3200,7 +3190,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="46" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>101</v>
       </c>
@@ -3211,8 +3201,8 @@
       <c r="K46" s="34">
         <v>1.4</v>
       </c>
-      <c r="L46" s="70">
-        <f t="shared" si="31"/>
+      <c r="L46" s="53">
+        <f t="shared" si="32"/>
         <v>3.7</v>
       </c>
       <c r="M46" s="2">
@@ -3227,7 +3217,7 @@
       </c>
       <c r="U46" s="33"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>102</v>
       </c>
@@ -3235,8 +3225,8 @@
         <f>SUM(K42:K46)</f>
         <v>409.3</v>
       </c>
-      <c r="L47" s="69">
-        <f t="shared" si="31"/>
+      <c r="L47" s="52">
+        <f t="shared" si="32"/>
         <v>461.7</v>
       </c>
       <c r="M47" s="35">
@@ -3252,7 +3242,7 @@
         <v>461.7</v>
       </c>
     </row>
-    <row r="48" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
@@ -3263,8 +3253,8 @@
       <c r="K48" s="34">
         <v>0</v>
       </c>
-      <c r="L48" s="70">
-        <f t="shared" si="31"/>
+      <c r="L48" s="53">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M48" s="34">
@@ -3279,15 +3269,15 @@
       </c>
       <c r="U48" s="33"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K49" s="1">
         <v>46.5</v>
       </c>
-      <c r="L49" s="69">
-        <f t="shared" si="31"/>
+      <c r="L49" s="52">
+        <f t="shared" si="32"/>
         <v>44</v>
       </c>
       <c r="M49" s="1">
@@ -3300,7 +3290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>101</v>
       </c>
@@ -3311,8 +3301,8 @@
       <c r="K50" s="2">
         <v>1.7</v>
       </c>
-      <c r="L50" s="70">
-        <f t="shared" si="31"/>
+      <c r="L50" s="53">
+        <f t="shared" si="32"/>
         <v>3.1</v>
       </c>
       <c r="M50" s="2">
@@ -3327,15 +3317,15 @@
       </c>
       <c r="U50" s="33"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K51" s="1">
         <v>3.8</v>
       </c>
-      <c r="L51" s="69">
-        <f t="shared" si="31"/>
+      <c r="L51" s="52">
+        <f t="shared" si="32"/>
         <v>25.3</v>
       </c>
       <c r="M51" s="1">
@@ -3348,7 +3338,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>103</v>
       </c>
@@ -3356,8 +3346,8 @@
         <f>K47+SUM(K48:K51)</f>
         <v>461.3</v>
       </c>
-      <c r="L52" s="69">
-        <f t="shared" si="31"/>
+      <c r="L52" s="52">
+        <f t="shared" si="32"/>
         <v>534.1</v>
       </c>
       <c r="M52" s="35">
@@ -3373,17 +3363,17 @@
         <v>534.1</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T53" s="35"/>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K54" s="1">
         <v>481.4</v>
       </c>
-      <c r="L54" s="69">
+      <c r="L54" s="52">
         <f>T54</f>
         <v>464.3</v>
       </c>
@@ -3397,7 +3387,7 @@
         <v>464.3</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>105</v>
       </c>
@@ -3405,7 +3395,7 @@
         <f>K54+K52</f>
         <v>942.7</v>
       </c>
-      <c r="L55" s="69">
+      <c r="L55" s="52">
         <f>L54+L52</f>
         <v>998.40000000000009</v>
       </c>
@@ -3422,24 +3412,24 @@
         <v>998.40000000000009</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>106</v>
       </c>
       <c r="K57" s="35">
-        <f t="shared" ref="K57:M57" si="32">K40-K52</f>
+        <f t="shared" ref="K57:M57" si="33">K40-K52</f>
         <v>481.40000000000003</v>
       </c>
-      <c r="L57" s="69">
-        <f t="shared" ref="L57" si="33">L40-L52</f>
+      <c r="L57" s="52">
+        <f t="shared" ref="L57" si="34">L40-L52</f>
         <v>464.29999999999984</v>
       </c>
       <c r="M57" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>424.60000000000014</v>
       </c>
       <c r="S57" s="35">
-        <f t="shared" ref="S57" si="34">S40-S52</f>
+        <f t="shared" ref="S57" si="35">S40-S52</f>
         <v>472.5</v>
       </c>
       <c r="T57" s="35">
@@ -3447,7 +3437,7 @@
         <v>464.29999999999984</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>107</v>
       </c>
@@ -3472,7 +3462,7 @@
         <v>0.37586011495183347</v>
       </c>
     </row>
-    <row r="60" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="40" t="s">
         <v>117</v>
       </c>
@@ -3480,7 +3470,7 @@
       <c r="F60" s="41"/>
       <c r="H60" s="41"/>
       <c r="J60" s="41"/>
-      <c r="L60" s="73"/>
+      <c r="L60" s="56"/>
       <c r="M60" s="44">
         <f>M59+M35/K35-1</f>
         <v>5.6818181818181879E-2</v>
@@ -3492,7 +3482,7 @@
       </c>
       <c r="U60" s="42"/>
     </row>
-    <row r="61" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="40" t="s">
         <v>118</v>
       </c>
@@ -3500,7 +3490,7 @@
       <c r="F61" s="41"/>
       <c r="H61" s="41"/>
       <c r="J61" s="41"/>
-      <c r="L61" s="73">
+      <c r="L61" s="56">
         <f>L35/K35-1</f>
         <v>9.4827586206896575E-2</v>
       </c>
@@ -3517,7 +3507,7 @@
       </c>
       <c r="U61" s="42"/>
     </row>
-    <row r="63" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="40" t="s">
         <v>6</v>
       </c>
@@ -3529,7 +3519,7 @@
         <f>K31+K37+K39</f>
         <v>171.6</v>
       </c>
-      <c r="L63" s="74">
+      <c r="L63" s="57">
         <f>L31+L37+L39</f>
         <v>118.3</v>
       </c>
@@ -3548,7 +3538,7 @@
       </c>
       <c r="U63" s="42"/>
     </row>
-    <row r="64" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="40" t="s">
         <v>7</v>
       </c>
@@ -3560,7 +3550,7 @@
         <f>K44+K46+K48+K50</f>
         <v>53.1</v>
       </c>
-      <c r="L64" s="74">
+      <c r="L64" s="57">
         <f>L44+L46+L48+L50</f>
         <v>106.8</v>
       </c>
@@ -3579,24 +3569,24 @@
       </c>
       <c r="U64" s="42"/>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K65" s="35">
-        <f t="shared" ref="K65" si="35">K63-K64</f>
+        <f t="shared" ref="K65" si="36">K63-K64</f>
         <v>118.5</v>
       </c>
-      <c r="L65" s="69">
-        <f t="shared" ref="L65:M65" si="36">L63-L64</f>
+      <c r="L65" s="52">
+        <f t="shared" ref="L65:M65" si="37">L63-L64</f>
         <v>11.5</v>
       </c>
       <c r="M65" s="35">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-36.599999999999966</v>
       </c>
       <c r="S65" s="35">
-        <f t="shared" ref="S65" si="37">S63-S64</f>
+        <f t="shared" ref="S65" si="38">S63-S64</f>
         <v>301.7</v>
       </c>
       <c r="T65" s="35">
@@ -3604,7 +3594,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>120</v>
       </c>
@@ -3615,7 +3605,7 @@
         <v>0.89439999999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>121</v>
       </c>
@@ -3628,12 +3618,12 @@
         <v>1104.85232</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="S69" s="35">
-        <f t="shared" ref="S69" si="38">S68-S65</f>
+        <f t="shared" ref="S69" si="39">S68-S65</f>
         <v>3810.8383000000003</v>
       </c>
       <c r="T69" s="35">
@@ -3641,7 +3631,7 @@
         <v>1093.35232</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>119</v>
       </c>
@@ -3654,7 +3644,7 @@
         <v>0.5572182368367965</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>110</v>
       </c>
@@ -3667,27 +3657,27 @@
         <v>-276.21307999999681</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>112</v>
       </c>
       <c r="S73" s="47"/>
       <c r="T73" s="47"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>123</v>
       </c>
       <c r="K75" s="36">
-        <f t="shared" ref="K75:M75" si="39">K35/K3</f>
+        <f t="shared" ref="K75:M75" si="40">K35/K3</f>
         <v>0.26150220309457933</v>
       </c>
-      <c r="L75" s="71">
-        <f t="shared" si="39"/>
+      <c r="L75" s="54">
+        <f t="shared" si="40"/>
         <v>0.27748535107756478</v>
       </c>
       <c r="M75" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.30564369900271987</v>
       </c>
       <c r="S75" s="36">

--- a/£BOO.xlsx
+++ b/£BOO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7D66DB-F2F3-4059-B946-9DC50D5E6045}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FE5133-8985-834E-AFFA-10F1559C6F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18900" xr2:uid="{D917D6C7-21F6-41B2-8A72-ADD41125E50A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18900" xr2:uid="{D917D6C7-21F6-41B2-8A72-ADD41125E50A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="126">
   <si>
     <t>£BOO</t>
   </si>
@@ -618,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -717,6 +727,20 @@
     <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -726,38 +750,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -854,7 +868,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -904,7 +918,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1247,46 +1261,46 @@
   <dimension ref="A2:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="58" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="G5" s="58" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="G5" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="60"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
@@ -1306,7 +1320,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1328,7 +1342,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1349,7 +1363,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
@@ -1372,7 +1386,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1409,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
@@ -1418,7 +1432,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1453,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G13" s="12"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1452,7 +1466,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G14" s="12"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1465,12 +1479,12 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="58" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B15" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
       <c r="G15" s="12"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1483,14 +1497,14 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="62" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="63"/>
@@ -1506,11 +1520,11 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="62" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="63"/>
@@ -1526,14 +1540,14 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="62" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="63"/>
@@ -1549,17 +1563,17 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="70"/>
+      <c r="D19" s="61"/>
       <c r="G19" s="31">
         <v>44228</v>
       </c>
@@ -1576,7 +1590,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G20" s="12"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1589,7 +1603,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G21" s="31">
         <v>44197</v>
       </c>
@@ -1606,12 +1620,12 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="58" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
       <c r="G22" s="12"/>
       <c r="H22" s="5" t="s">
         <v>61</v>
@@ -1626,11 +1640,11 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="62" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="63"/>
@@ -1646,11 +1660,11 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="62">
         <v>2006</v>
       </c>
       <c r="D24" s="63"/>
@@ -1670,11 +1684,11 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="62">
         <f>'Financial Model'!M35</f>
         <v>269.7</v>
       </c>
@@ -1691,10 +1705,10 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B26" s="12"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
       <c r="G26" s="12"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1707,7 +1721,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B27" s="12" t="s">
         <v>18</v>
       </c>
@@ -1729,14 +1743,14 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="74"/>
+      <c r="D28" s="72"/>
       <c r="G28" s="12"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1749,7 +1763,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G29" s="12"/>
       <c r="H29" s="5"/>
       <c r="J29" s="5"/>
@@ -1761,7 +1775,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1774,12 +1788,12 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="58" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B31" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1792,15 +1806,15 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B32" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="71">
+      <c r="C32" s="67">
         <f>C12/'Financial Model'!T14</f>
         <v>-142.51072749999832</v>
       </c>
-      <c r="D32" s="72"/>
+      <c r="D32" s="68"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1813,12 +1827,12 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B33" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -1831,12 +1845,15 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
+      <c r="C34" s="76">
+        <f>'Financial Model'!M74</f>
+        <v>-6.4531323598681092E-2</v>
+      </c>
+      <c r="D34" s="63"/>
       <c r="G34" s="31">
         <v>44013</v>
       </c>
@@ -1853,15 +1870,15 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B35" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="71">
+      <c r="C35" s="67">
         <f>C6/'Financial Model'!M58</f>
         <v>1.2563422279792744</v>
       </c>
-      <c r="D35" s="72"/>
+      <c r="D35" s="68"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1874,10 +1891,10 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B36" s="12"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -1890,15 +1907,15 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B37" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="73">
         <f>C8/'Financial Model'!T3</f>
         <v>0.26903515735323785</v>
       </c>
-      <c r="D37" s="62"/>
+      <c r="D37" s="74"/>
       <c r="G37" s="13"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -1911,40 +1928,49 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B38" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="61">
+      <c r="C38" s="73">
         <f>'Financial Model'!T71</f>
         <v>0.5572182368367965</v>
       </c>
       <c r="D38" s="63"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B39" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="61">
+      <c r="C39" s="73">
         <f>'Financial Model'!S71</f>
         <v>2.3563503695639718</v>
       </c>
       <c r="D39" s="63"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B40" s="12"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C40" s="69"/>
+      <c r="D40" s="70"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B41" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="68"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C17:D17"/>
@@ -1960,15 +1986,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{3DA49863-E5C6-46B1-8E08-C0029C60358D}"/>
@@ -1980,37 +1997,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E684C9F-2341-4AC5-9107-F27B9525F613}">
-  <dimension ref="A1:AG75"/>
+  <dimension ref="A1:AG76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="29"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="29"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="29"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="29"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="29"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="29"/>
-    <col min="15" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="9.140625" style="30"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="9.1640625" style="29"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.1640625" style="29"/>
+    <col min="7" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.1640625" style="29"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.1640625" style="29"/>
+    <col min="11" max="11" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="9.1640625" style="29"/>
+    <col min="13" max="13" width="9.1640625" style="1"/>
+    <col min="14" max="14" width="9.1640625" style="29"/>
+    <col min="15" max="20" width="9.1640625" style="1"/>
+    <col min="21" max="21" width="9.1640625" style="30"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>30</v>
       </c>
@@ -2102,7 +2119,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23"/>
       <c r="D2" s="25"/>
       <c r="F2" s="25"/>
@@ -2136,7 +2153,7 @@
       </c>
       <c r="U2" s="28"/>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
@@ -2172,7 +2189,7 @@
       </c>
       <c r="U3" s="33"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
@@ -2202,7 +2219,7 @@
         <v>941.7</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>67</v>
       </c>
@@ -2245,7 +2262,7 @@
       </c>
       <c r="U5" s="33"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
@@ -2272,7 +2289,7 @@
         <v>516.5</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
@@ -2299,7 +2316,7 @@
         <v>515.29999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>70</v>
       </c>
@@ -2326,7 +2343,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
@@ -2365,7 +2382,7 @@
       </c>
       <c r="U9" s="33"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>72</v>
       </c>
@@ -2392,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
@@ -2419,7 +2436,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>74</v>
       </c>
@@ -2452,7 +2469,7 @@
         <v>7.7999999999999545</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>75</v>
       </c>
@@ -2479,7 +2496,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>76</v>
       </c>
@@ -2518,7 +2535,7 @@
       </c>
       <c r="U14" s="33"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -2551,7 +2568,7 @@
         <v>-3.2380798186675678E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2579,7 +2596,7 @@
         <v>1235.3</v>
       </c>
     </row>
-    <row r="18" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>78</v>
       </c>
@@ -2607,7 +2624,7 @@
       </c>
       <c r="U18" s="33"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>79</v>
       </c>
@@ -2635,7 +2652,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
@@ -2672,7 +2689,7 @@
         <v>0.52506556384910219</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
@@ -2709,7 +2726,7 @@
         <v>4.7407706273955791E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2746,7 +2763,7 @@
         <v>-2.017349203147088E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2783,7 +2800,7 @@
         <v>1.5128205128205217</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B27" s="38" t="s">
         <v>85</v>
       </c>
@@ -2791,7 +2808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>86</v>
       </c>
@@ -2812,7 +2829,7 @@
         <v>128.5</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>87</v>
       </c>
@@ -2833,7 +2850,7 @@
         <v>349.2</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>88</v>
       </c>
@@ -2854,7 +2871,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="31" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
         <v>89</v>
       </c>
@@ -2881,7 +2898,7 @@
       </c>
       <c r="U31" s="33"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>125</v>
       </c>
@@ -2902,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>90</v>
       </c>
@@ -2923,7 +2940,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>91</v>
       </c>
@@ -2948,7 +2965,7 @@
         <v>537.69999999999993</v>
       </c>
     </row>
-    <row r="35" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
         <v>92</v>
       </c>
@@ -2975,7 +2992,7 @@
       </c>
       <c r="U35" s="33"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>93</v>
       </c>
@@ -2996,7 +3013,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>89</v>
       </c>
@@ -3023,7 +3040,7 @@
       </c>
       <c r="U37" s="33"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>94</v>
       </c>
@@ -3044,7 +3061,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="39" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
@@ -3071,7 +3088,7 @@
       </c>
       <c r="U39" s="33"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>96</v>
       </c>
@@ -3096,11 +3113,11 @@
         <v>998.39999999999986</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
       <c r="S41" s="35"/>
       <c r="T41" s="35"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
@@ -3121,7 +3138,7 @@
         <v>296.60000000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>98</v>
       </c>
@@ -3142,7 +3159,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="44" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
@@ -3169,7 +3186,7 @@
       </c>
       <c r="U44" s="33"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>100</v>
       </c>
@@ -3190,7 +3207,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="46" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
         <v>101</v>
       </c>
@@ -3217,7 +3234,7 @@
       </c>
       <c r="U46" s="33"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>102</v>
       </c>
@@ -3242,7 +3259,7 @@
         <v>461.7</v>
       </c>
     </row>
-    <row r="48" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
@@ -3269,7 +3286,7 @@
       </c>
       <c r="U48" s="33"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>100</v>
       </c>
@@ -3290,7 +3307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
         <v>101</v>
       </c>
@@ -3317,7 +3334,7 @@
       </c>
       <c r="U50" s="33"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>90</v>
       </c>
@@ -3338,7 +3355,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>103</v>
       </c>
@@ -3363,10 +3380,10 @@
         <v>534.1</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.15">
       <c r="T53" s="35"/>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>104</v>
       </c>
@@ -3387,7 +3404,7 @@
         <v>464.3</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>105</v>
       </c>
@@ -3412,7 +3429,7 @@
         <v>998.40000000000009</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>106</v>
       </c>
@@ -3437,7 +3454,7 @@
         <v>464.29999999999984</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>107</v>
       </c>
@@ -3462,7 +3479,7 @@
         <v>0.37586011495183347</v>
       </c>
     </row>
-    <row r="60" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="40" t="s">
         <v>117</v>
       </c>
@@ -3482,7 +3499,7 @@
       </c>
       <c r="U60" s="42"/>
     </row>
-    <row r="61" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="40" t="s">
         <v>118</v>
       </c>
@@ -3507,7 +3524,7 @@
       </c>
       <c r="U61" s="42"/>
     </row>
-    <row r="63" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="40" t="s">
         <v>6</v>
       </c>
@@ -3538,7 +3555,7 @@
       </c>
       <c r="U63" s="42"/>
     </row>
-    <row r="64" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="40" t="s">
         <v>7</v>
       </c>
@@ -3569,7 +3586,7 @@
       </c>
       <c r="U64" s="42"/>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
@@ -3594,7 +3611,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>120</v>
       </c>
@@ -3605,7 +3622,7 @@
         <v>0.89439999999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>121</v>
       </c>
@@ -3618,7 +3635,7 @@
         <v>1104.85232</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
@@ -3631,7 +3648,7 @@
         <v>1093.35232</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>119</v>
       </c>
@@ -3644,7 +3661,7 @@
         <v>0.5572182368367965</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
         <v>110</v>
       </c>
@@ -3657,34 +3674,61 @@
         <v>-276.21307999999681</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>112</v>
       </c>
       <c r="S73" s="47"/>
       <c r="T73" s="47"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
+    <row r="74" spans="2:21" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="L74" s="54">
+        <f>SUM(K9:L9)/L57</f>
+        <v>2.0245530906741239E-2</v>
+      </c>
+      <c r="M74" s="36">
+        <f>SUM(L9:M9)/M57</f>
+        <v>-6.4531323598681092E-2</v>
+      </c>
+      <c r="N74" s="54"/>
+      <c r="S74" s="36">
+        <f t="shared" ref="S74:T74" si="40">S9/S57</f>
+        <v>0.26264550264550246</v>
+      </c>
+      <c r="T74" s="36">
+        <f>T9/T57</f>
+        <v>2.0245530906741239E-2</v>
+      </c>
+      <c r="U74" s="75"/>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K75" s="36">
-        <f t="shared" ref="K75:M75" si="40">K35/K3</f>
+      <c r="K76" s="36">
+        <f t="shared" ref="K76:M76" si="41">K35/K3</f>
         <v>0.26150220309457933</v>
       </c>
-      <c r="L75" s="54">
-        <f t="shared" si="40"/>
+      <c r="L76" s="54">
+        <f t="shared" si="41"/>
         <v>0.27748535107756478</v>
       </c>
-      <c r="M75" s="36">
-        <f t="shared" si="40"/>
+      <c r="M76" s="36">
+        <f t="shared" si="41"/>
         <v>0.30564369900271987</v>
       </c>
-      <c r="S75" s="36">
+      <c r="S76" s="36">
         <f>S35/S3</f>
         <v>8.3022975992666018E-2</v>
       </c>
-      <c r="T75" s="36">
+      <c r="T76" s="36">
         <f>T35/T3</f>
         <v>0.14091184183982247</v>
       </c>

--- a/£BOO.xlsx
+++ b/£BOO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FE5133-8985-834E-AFFA-10F1559C6F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913A91F9-47A9-47B4-B94C-EFEB74D1E24D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18900" xr2:uid="{D917D6C7-21F6-41B2-8A72-ADD41125E50A}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18900" activeTab="1" xr2:uid="{D917D6C7-21F6-41B2-8A72-ADD41125E50A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="126">
   <si>
     <t>£BOO</t>
   </si>
@@ -727,20 +717,7 @@
     <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,28 +727,41 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1260,47 +1250,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD45D41-5E41-4A8C-B5CB-23922776B648}">
   <dimension ref="A2:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="64" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="G5" s="64" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="G5" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +1310,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1342,7 +1332,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1363,7 +1353,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
@@ -1386,7 +1376,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
@@ -1409,7 +1399,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
@@ -1432,7 +1422,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1443,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G13" s="12"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1466,7 +1456,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G14" s="12"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1479,12 +1469,12 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="64" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
       <c r="G15" s="12"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1497,17 +1487,17 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="64"/>
       <c r="G16" s="12"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1520,14 +1510,14 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="64"/>
       <c r="G17" s="12"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1540,17 +1530,17 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="63"/>
+      <c r="D18" s="64"/>
       <c r="G18" s="12"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1563,17 +1553,17 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="61"/>
+      <c r="D19" s="71"/>
       <c r="G19" s="31">
         <v>44228</v>
       </c>
@@ -1590,7 +1580,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G20" s="12"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1603,7 +1593,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G21" s="31">
         <v>44197</v>
       </c>
@@ -1620,12 +1610,12 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="64" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
       <c r="G22" s="12"/>
       <c r="H22" s="5" t="s">
         <v>61</v>
@@ -1640,14 +1630,14 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="G23" s="12"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1660,14 +1650,14 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="67">
         <v>2006</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="64"/>
       <c r="G24" s="31">
         <v>44531</v>
       </c>
@@ -1684,15 +1674,15 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="67">
         <f>'Financial Model'!M35</f>
         <v>269.7</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="64"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1705,10 +1695,10 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
       <c r="G26" s="12"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1721,7 +1711,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>18</v>
       </c>
@@ -1743,14 +1733,14 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="72"/>
+      <c r="D28" s="76"/>
       <c r="G28" s="12"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1763,7 +1753,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G29" s="12"/>
       <c r="H29" s="5"/>
       <c r="J29" s="5"/>
@@ -1775,7 +1765,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1788,12 +1778,12 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="64" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1806,15 +1796,15 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="72">
         <f>C12/'Financial Model'!T14</f>
         <v>-142.51072749999832</v>
       </c>
-      <c r="D32" s="68"/>
+      <c r="D32" s="73"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1827,12 +1817,12 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -1845,15 +1835,15 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="76">
+      <c r="C34" s="74">
         <f>'Financial Model'!M74</f>
-        <v>-6.4531323598681092E-2</v>
-      </c>
-      <c r="D34" s="63"/>
+        <v>-3.2615164861326026E-2</v>
+      </c>
+      <c r="D34" s="64"/>
       <c r="G34" s="31">
         <v>44013</v>
       </c>
@@ -1870,15 +1860,15 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="72">
         <f>C6/'Financial Model'!M58</f>
         <v>1.2563422279792744</v>
       </c>
-      <c r="D35" s="68"/>
+      <c r="D35" s="73"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1891,10 +1881,10 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -1907,15 +1897,15 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="62">
         <f>C8/'Financial Model'!T3</f>
         <v>0.26903515735323785</v>
       </c>
-      <c r="D37" s="74"/>
+      <c r="D37" s="63"/>
       <c r="G37" s="13"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -1928,49 +1918,40 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="62">
         <f>'Financial Model'!T71</f>
         <v>0.5572182368367965</v>
       </c>
-      <c r="D38" s="63"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D38" s="64"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="62">
         <f>'Financial Model'!S71</f>
         <v>2.3563503695639718</v>
       </c>
-      <c r="D39" s="63"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D39" s="64"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="12"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="70"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="59"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C17:D17"/>
@@ -1986,6 +1967,15 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{3DA49863-E5C6-46B1-8E08-C0029C60358D}"/>
@@ -1999,35 +1989,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E684C9F-2341-4AC5-9107-F27B9525F613}">
   <dimension ref="A1:AG76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="T74" sqref="S74:T74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="1"/>
-    <col min="4" max="4" width="9.1640625" style="29"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="29"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="29"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.1640625" style="29"/>
-    <col min="11" max="11" width="9.1640625" style="1"/>
-    <col min="12" max="12" width="9.1640625" style="29"/>
-    <col min="13" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="14" width="9.1640625" style="29"/>
-    <col min="15" max="20" width="9.1640625" style="1"/>
-    <col min="21" max="21" width="9.1640625" style="30"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="29"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="29"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="29"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="29"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="29"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="29"/>
+    <col min="15" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="9.140625" style="30"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="19" t="s">
         <v>30</v>
       </c>
@@ -2119,7 +2109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="D2" s="25"/>
       <c r="F2" s="25"/>
@@ -2153,7 +2143,7 @@
       </c>
       <c r="U2" s="28"/>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
@@ -2189,7 +2179,7 @@
       </c>
       <c r="U3" s="33"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
@@ -2219,7 +2209,7 @@
         <v>941.7</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>67</v>
       </c>
@@ -2262,7 +2252,7 @@
       </c>
       <c r="U5" s="33"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
@@ -2289,7 +2279,7 @@
         <v>516.5</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
@@ -2316,7 +2306,7 @@
         <v>515.29999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>70</v>
       </c>
@@ -2343,7 +2333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
@@ -2382,7 +2372,7 @@
       </c>
       <c r="U9" s="33"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>72</v>
       </c>
@@ -2409,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
@@ -2436,7 +2426,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>74</v>
       </c>
@@ -2469,7 +2459,7 @@
         <v>7.7999999999999545</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>75</v>
       </c>
@@ -2496,7 +2486,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>76</v>
       </c>
@@ -2535,7 +2525,7 @@
       </c>
       <c r="U14" s="33"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -2568,7 +2558,7 @@
         <v>-3.2380798186675678E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2596,7 +2586,7 @@
         <v>1235.3</v>
       </c>
     </row>
-    <row r="18" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>78</v>
       </c>
@@ -2624,7 +2614,7 @@
       </c>
       <c r="U18" s="33"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>79</v>
       </c>
@@ -2652,7 +2642,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
@@ -2689,7 +2679,7 @@
         <v>0.52506556384910219</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
@@ -2726,7 +2716,7 @@
         <v>4.7407706273955791E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2763,7 +2753,7 @@
         <v>-2.017349203147088E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2800,7 +2790,7 @@
         <v>1.5128205128205217</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>85</v>
       </c>
@@ -2808,7 +2798,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>86</v>
       </c>
@@ -2829,7 +2819,7 @@
         <v>128.5</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>87</v>
       </c>
@@ -2850,7 +2840,7 @@
         <v>349.2</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>88</v>
       </c>
@@ -2871,7 +2861,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="31" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>89</v>
       </c>
@@ -2898,7 +2888,7 @@
       </c>
       <c r="U31" s="33"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>125</v>
       </c>
@@ -2919,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>90</v>
       </c>
@@ -2940,7 +2930,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>91</v>
       </c>
@@ -2965,7 +2955,7 @@
         <v>537.69999999999993</v>
       </c>
     </row>
-    <row r="35" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>92</v>
       </c>
@@ -2992,7 +2982,7 @@
       </c>
       <c r="U35" s="33"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>93</v>
       </c>
@@ -3013,7 +3003,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>89</v>
       </c>
@@ -3040,7 +3030,7 @@
       </c>
       <c r="U37" s="33"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>94</v>
       </c>
@@ -3061,7 +3051,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="39" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
@@ -3088,7 +3078,7 @@
       </c>
       <c r="U39" s="33"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>96</v>
       </c>
@@ -3113,11 +3103,11 @@
         <v>998.39999999999986</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="S41" s="35"/>
       <c r="T41" s="35"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
@@ -3138,7 +3128,7 @@
         <v>296.60000000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>98</v>
       </c>
@@ -3159,7 +3149,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="44" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
@@ -3186,7 +3176,7 @@
       </c>
       <c r="U44" s="33"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>100</v>
       </c>
@@ -3207,7 +3197,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="46" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>101</v>
       </c>
@@ -3234,7 +3224,7 @@
       </c>
       <c r="U46" s="33"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>102</v>
       </c>
@@ -3259,7 +3249,7 @@
         <v>461.7</v>
       </c>
     </row>
-    <row r="48" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
@@ -3286,7 +3276,7 @@
       </c>
       <c r="U48" s="33"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>100</v>
       </c>
@@ -3307,7 +3297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>101</v>
       </c>
@@ -3334,7 +3324,7 @@
       </c>
       <c r="U50" s="33"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>90</v>
       </c>
@@ -3355,7 +3345,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>103</v>
       </c>
@@ -3380,10 +3370,10 @@
         <v>534.1</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T53" s="35"/>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>104</v>
       </c>
@@ -3404,7 +3394,7 @@
         <v>464.3</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>105</v>
       </c>
@@ -3429,7 +3419,7 @@
         <v>998.40000000000009</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>106</v>
       </c>
@@ -3454,7 +3444,7 @@
         <v>464.29999999999984</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>107</v>
       </c>
@@ -3479,7 +3469,7 @@
         <v>0.37586011495183347</v>
       </c>
     </row>
-    <row r="60" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="40" t="s">
         <v>117</v>
       </c>
@@ -3499,7 +3489,7 @@
       </c>
       <c r="U60" s="42"/>
     </row>
-    <row r="61" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="40" t="s">
         <v>118</v>
       </c>
@@ -3524,7 +3514,7 @@
       </c>
       <c r="U61" s="42"/>
     </row>
-    <row r="63" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="40" t="s">
         <v>6</v>
       </c>
@@ -3555,7 +3545,7 @@
       </c>
       <c r="U63" s="42"/>
     </row>
-    <row r="64" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="40" t="s">
         <v>7</v>
       </c>
@@ -3586,7 +3576,7 @@
       </c>
       <c r="U64" s="42"/>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
@@ -3611,7 +3601,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>120</v>
       </c>
@@ -3622,7 +3612,7 @@
         <v>0.89439999999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>121</v>
       </c>
@@ -3635,7 +3625,7 @@
         <v>1104.85232</v>
       </c>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
@@ -3648,7 +3638,7 @@
         <v>1093.35232</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>119</v>
       </c>
@@ -3661,7 +3651,7 @@
         <v>0.5572182368367965</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>110</v>
       </c>
@@ -3674,14 +3664,14 @@
         <v>-276.21307999999681</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>112</v>
       </c>
       <c r="S73" s="47"/>
       <c r="T73" s="47"/>
     </row>
-    <row r="74" spans="2:21" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:21" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="36" t="s">
         <v>111</v>
       </c>
@@ -3690,25 +3680,25 @@
       <c r="H74" s="54"/>
       <c r="J74" s="54"/>
       <c r="L74" s="54">
-        <f>SUM(K9:L9)/L57</f>
-        <v>2.0245530906741239E-2</v>
+        <f>SUM(K9:L9)/(L40-L47)</f>
+        <v>1.7514440096888313E-2</v>
       </c>
       <c r="M74" s="36">
-        <f>SUM(L9:M9)/M57</f>
-        <v>-6.4531323598681092E-2</v>
+        <f>SUM(L9:M9)/(M40-M47)</f>
+        <v>-3.2615164861326026E-2</v>
       </c>
       <c r="N74" s="54"/>
       <c r="S74" s="36">
-        <f t="shared" ref="S74:T74" si="40">S9/S57</f>
-        <v>0.26264550264550246</v>
+        <f t="shared" ref="S74" si="40">S9/(S40-S47)</f>
+        <v>0.25316197470420221</v>
       </c>
       <c r="T74" s="36">
-        <f>T9/T57</f>
-        <v>2.0245530906741239E-2</v>
-      </c>
-      <c r="U74" s="75"/>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.15">
+        <f>T9/(T40-T47)</f>
+        <v>1.7514440096888313E-2</v>
+      </c>
+      <c r="U74" s="58"/>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>123</v>
       </c>
